--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -511,12 +511,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Boss</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>aux</t>
+          <t>FinalOut</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -566,19 +566,19 @@
         <v>0.73</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6254971539018062</v>
+        <v>0.6326306619156764</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5000000000000021</v>
+        <v>0.4800127946744334</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.748349253671347e-15</v>
+        <v>0.8000857010145761</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5782841020270607</v>
+        <v>0.8865870427181738</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1045028460981938</v>
+        <v>0.09736933808432358</v>
       </c>
     </row>
     <row r="3">
@@ -622,19 +622,19 @@
         <v>-0.82</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.6011731879262867</v>
+        <v>-0.6338079777902081</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7960885579099168</v>
+        <v>0.8197152674913841</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.720994498585242</v>
+        <v>0.8099207875052991</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003946986014541506</v>
+        <v>0.8888366501815383</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2188268120737132</v>
+        <v>0.1861920222097918</v>
       </c>
     </row>
     <row r="4">
@@ -678,19 +678,19 @@
         <v>0.12</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.6254971539018044</v>
+        <v>0.5467855898878142</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5000000000000021</v>
+        <v>0.4800127946744334</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.631830498475367e-15</v>
+        <v>0.6936418300135643</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.5782841020270609</v>
+        <v>0.7575776572205166</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.7454971539018044</v>
+        <v>0.4267855898878142</v>
       </c>
     </row>
     <row r="5">
@@ -734,19 +734,19 @@
         <v>-0.85</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.569603783716748</v>
+        <v>-0.635421804331712</v>
       </c>
       <c r="O5" t="n">
         <v>0.8336666666666664</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.7297811825075458</v>
+        <v>0.8336666666666664</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6673333333333329</v>
+        <v>0.8919666127539357</v>
       </c>
       <c r="R5" t="n">
-        <v>0.280396216283252</v>
+        <v>0.214578195668288</v>
       </c>
     </row>
     <row r="6">
@@ -790,19 +790,19 @@
         <v>0.5</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.2081738564713667</v>
+        <v>0.6254971539018033</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4001090991766818</v>
+        <v>0.2108579489864714</v>
       </c>
       <c r="P6" t="n">
-        <v>5.76163749118332e-18</v>
+        <v>0.8336666666666664</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1764510618352712</v>
+        <v>0.8919666127539357</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.7081738564713667</v>
+        <v>0.1254971539018033</v>
       </c>
     </row>
     <row r="7">
@@ -846,19 +846,19 @@
         <v>0.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.630075556186824</v>
+        <v>0.6395925669306352</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4999999999999976</v>
+        <v>0.4615966157694602</v>
       </c>
       <c r="P7" t="n">
-        <v>2.772757197405973e-17</v>
+        <v>0.4999999999999982</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6059841546518602</v>
+        <v>0.9003332004885486</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.1699244438131761</v>
+        <v>0.1604074330693649</v>
       </c>
     </row>
     <row r="8">
@@ -902,19 +902,19 @@
         <v>-0.31</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.05845877839255756</v>
+        <v>-0.6345313432709465</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7818759102674119</v>
+        <v>0.8321239649056814</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7173989312146137</v>
+        <v>0.814551019477649</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.07699482482189093</v>
+        <v>0.8902327801068848</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2515412216074424</v>
+        <v>0.3245313432709465</v>
       </c>
     </row>
     <row r="9">
@@ -958,19 +958,19 @@
         <v>-0.65</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5790531128057421</v>
+        <v>-0.6343676191317295</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7818759102674119</v>
+        <v>0.8321239649056814</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.7169139740323115</v>
+        <v>0.8111885302390592</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1764510618352712</v>
+        <v>0.8899158294231181</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0709468871942579</v>
+        <v>0.01563238086827057</v>
       </c>
     </row>
     <row r="10">
@@ -1014,19 +1014,19 @@
         <v>0.85</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0699559474850755</v>
+        <v>0.5174572920123405</v>
       </c>
       <c r="O10" t="n">
-        <v>0.214453257763436</v>
+        <v>0.2181240897325915</v>
       </c>
       <c r="P10" t="n">
-        <v>4.064305120362015e-17</v>
+        <v>0.6486161655729349</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.05985974657906502</v>
+        <v>0.7205936468619331</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9199559474850755</v>
+        <v>0.3325427079876595</v>
       </c>
     </row>
     <row r="11">
@@ -1070,19 +1070,19 @@
         <v>0.85</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07495112093983489</v>
+        <v>0.5781331533356125</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1802847325086204</v>
+        <v>0.1663333333333334</v>
       </c>
       <c r="P11" t="n">
-        <v>4.857294129588598e-17</v>
+        <v>0.4999999999999994</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06433659741973383</v>
+        <v>0.6501063705933937</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.7750488790601651</v>
+        <v>0.2718668466643874</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,60 +466,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>V_MemoryUsage</t>
+          <t>CLPVariation</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>V_ProcessorLoad</t>
+          <t>CLPVariation_pred</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>V_InpNetThroughput</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>V_OutNetThroughput</t>
+          <t>Out</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>V_OutBandwidth</t>
+          <t>FinalOut</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>V_Latency</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CLPVariation</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CLPVariation_pred</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>FinalOut</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>erro_CLP</t>
         </is>
@@ -545,39 +515,21 @@
         <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>0.6326306619156764</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.4800127946744334</v>
       </c>
       <c r="J2" t="n">
-        <v>0.48</v>
+        <v>0.8000857010145761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0.8865870427181738</v>
       </c>
       <c r="L2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6326306619156764</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.4800127946744334</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8000857010145761</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.8865870427181738</v>
-      </c>
-      <c r="R2" t="n">
         <v>0.09736933808432358</v>
       </c>
     </row>
@@ -601,39 +553,21 @@
         <v>0.53</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>-0.82</v>
       </c>
       <c r="H3" t="n">
-        <v>0.52</v>
+        <v>-0.6338079777902081</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.8197152674913841</v>
       </c>
       <c r="J3" t="n">
-        <v>0.52</v>
+        <v>0.8099207875052991</v>
       </c>
       <c r="K3" t="n">
-        <v>0.48</v>
+        <v>0.8888366501815383</v>
       </c>
       <c r="L3" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.6338079777902081</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.8197152674913841</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.8099207875052991</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.8888366501815383</v>
-      </c>
-      <c r="R3" t="n">
         <v>0.1861920222097918</v>
       </c>
     </row>
@@ -657,39 +591,21 @@
         <v>0.4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.52</v>
+        <v>0.5467855898878142</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.4800127946744334</v>
       </c>
       <c r="J4" t="n">
-        <v>0.48</v>
+        <v>0.6936418300135643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.46</v>
+        <v>0.7575776572205166</v>
       </c>
       <c r="L4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.5467855898878142</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.4800127946744334</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.6936418300135643</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7575776572205166</v>
-      </c>
-      <c r="R4" t="n">
         <v>0.4267855898878142</v>
       </c>
     </row>
@@ -713,39 +629,21 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>-0.85</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>-0.635421804331712</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>0.8336666666666664</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.8336666666666664</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>0.8919666127539357</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.635421804331712</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.8336666666666664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.8336666666666664</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.8919666127539357</v>
-      </c>
-      <c r="R5" t="n">
         <v>0.214578195668288</v>
       </c>
     </row>
@@ -772,36 +670,18 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.6254971539018033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>0.2108579489864714</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.8336666666666664</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5</v>
+        <v>0.8919666127539357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.6254971539018033</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.2108579489864714</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.8336666666666664</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.8919666127539357</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.1254971539018033</v>
       </c>
     </row>
@@ -825,39 +705,21 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.45</v>
+        <v>0.6395925669306352</v>
       </c>
       <c r="I7" t="n">
-        <v>0.51</v>
+        <v>0.4615966157694602</v>
       </c>
       <c r="J7" t="n">
-        <v>0.45</v>
+        <v>0.4999999999999982</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3</v>
+        <v>0.9003332004885486</v>
       </c>
       <c r="L7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.6395925669306352</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.4615966157694602</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.4999999999999982</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.9003332004885486</v>
-      </c>
-      <c r="R7" t="n">
         <v>0.1604074330693649</v>
       </c>
     </row>
@@ -881,39 +743,21 @@
         <v>0.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.59</v>
+        <v>-0.31</v>
       </c>
       <c r="H8" t="n">
-        <v>0.45</v>
+        <v>-0.6345313432709465</v>
       </c>
       <c r="I8" t="n">
-        <v>0.55</v>
+        <v>0.8321239649056814</v>
       </c>
       <c r="J8" t="n">
-        <v>0.52</v>
+        <v>0.814551019477649</v>
       </c>
       <c r="K8" t="n">
-        <v>0.49</v>
+        <v>0.8902327801068848</v>
       </c>
       <c r="L8" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-0.6345313432709465</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.8321239649056814</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.814551019477649</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.8902327801068848</v>
-      </c>
-      <c r="R8" t="n">
         <v>0.3245313432709465</v>
       </c>
     </row>
@@ -937,39 +781,21 @@
         <v>0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.45</v>
+        <v>-0.65</v>
       </c>
       <c r="H9" t="n">
-        <v>0.53</v>
+        <v>-0.6343676191317295</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8321239649056814</v>
       </c>
       <c r="J9" t="n">
-        <v>0.48</v>
+        <v>0.8111885302390592</v>
       </c>
       <c r="K9" t="n">
-        <v>0.46</v>
+        <v>0.8899158294231181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-0.6343676191317295</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.8321239649056814</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.8111885302390592</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.8899158294231181</v>
-      </c>
-      <c r="R9" t="n">
         <v>0.01563238086827057</v>
       </c>
     </row>
@@ -993,39 +819,21 @@
         <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0.67</v>
+        <v>0.5174572920123405</v>
       </c>
       <c r="I10" t="n">
-        <v>0.58</v>
+        <v>0.2181240897325915</v>
       </c>
       <c r="J10" t="n">
-        <v>0.55</v>
+        <v>0.6486161655729349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.52</v>
+        <v>0.7205936468619331</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.5174572920123405</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.2181240897325915</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.6486161655729349</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.7205936468619331</v>
-      </c>
-      <c r="R10" t="n">
         <v>0.3325427079876595</v>
       </c>
     </row>
@@ -1049,39 +857,21 @@
         <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0.67</v>
+        <v>0.5781331533356125</v>
       </c>
       <c r="I11" t="n">
-        <v>0.58</v>
+        <v>0.1663333333333334</v>
       </c>
       <c r="J11" t="n">
-        <v>0.55</v>
+        <v>0.4999999999999994</v>
       </c>
       <c r="K11" t="n">
-        <v>0.52</v>
+        <v>0.6501063705933937</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.5781331533356125</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.1663333333333334</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.4999999999999994</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.6501063705933937</v>
-      </c>
-      <c r="R11" t="n">
         <v>0.2718668466643874</v>
       </c>
     </row>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -594,7 +594,7 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5467855898878142</v>
+        <v>0.6099279107256591</v>
       </c>
       <c r="I4" t="n">
         <v>0.4800127946744334</v>
@@ -603,10 +603,10 @@
         <v>0.6936418300135643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7575776572205166</v>
+        <v>0.8472578874093445</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4267855898878142</v>
+        <v>0.4899279107256591</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +822,7 @@
         <v>0.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5174572920123405</v>
+        <v>0.6230234299428949</v>
       </c>
       <c r="I10" t="n">
         <v>0.2181240897325915</v>
@@ -831,10 +831,10 @@
         <v>0.6486161655729349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7205936468619331</v>
+        <v>0.8712479007605568</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3325427079876595</v>
+        <v>0.226976570057105</v>
       </c>
     </row>
     <row r="11">
@@ -860,7 +860,7 @@
         <v>0.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5781331533356125</v>
+        <v>0.622439683079166</v>
       </c>
       <c r="I11" t="n">
         <v>0.1663333333333334</v>
@@ -869,10 +869,10 @@
         <v>0.4999999999999994</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6501063705933937</v>
+        <v>0.8681087666070352</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2718668466643874</v>
+        <v>0.227560316920834</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -518,19 +518,19 @@
         <v>0.73</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6326306619156764</v>
+        <v>0.6310413597568404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4800127946744334</v>
+        <v>0.4723216039240778</v>
       </c>
       <c r="J2" t="n">
         <v>0.8000857010145761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8865870427181738</v>
+        <v>0.883592509046112</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09736933808432358</v>
+        <v>0.09895864024315959</v>
       </c>
     </row>
     <row r="3">
@@ -556,19 +556,19 @@
         <v>-0.82</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6338079777902081</v>
+        <v>-0.6343053487049435</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8197152674913841</v>
+        <v>0.8313644582717292</v>
       </c>
       <c r="J3" t="n">
         <v>0.8099207875052991</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8888366501815383</v>
+        <v>0.889795429016197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1861920222097918</v>
+        <v>0.1856946512950565</v>
       </c>
     </row>
     <row r="4">
@@ -594,19 +594,19 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6099279107256591</v>
+        <v>0.3365849853028059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4800127946744334</v>
+        <v>0.4723216039240778</v>
       </c>
       <c r="J4" t="n">
         <v>0.6936418300135643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8472578874093445</v>
+        <v>0.680884174355996</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4899279107256591</v>
+        <v>0.2165849853028059</v>
       </c>
     </row>
     <row r="5">
@@ -635,7 +635,7 @@
         <v>-0.635421804331712</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8336666666666664</v>
+        <v>0.8447036566409688</v>
       </c>
       <c r="J5" t="n">
         <v>0.8336666666666664</v>
@@ -670,10 +670,10 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6254971539018033</v>
+        <v>0.6354218043317128</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2108579489864714</v>
+        <v>0.2874308538537654</v>
       </c>
       <c r="J6" t="n">
         <v>0.8336666666666664</v>
@@ -682,7 +682,7 @@
         <v>0.8919666127539357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1254971539018033</v>
+        <v>0.1354218043317128</v>
       </c>
     </row>
     <row r="7">
@@ -708,19 +708,19 @@
         <v>0.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6395925669306352</v>
+        <v>0.6342816344660573</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4615966157694602</v>
+        <v>0.3848806682920582</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4999999999999982</v>
+        <v>0.1905605150983513</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9003332004885486</v>
+        <v>0.8897495989297139</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1604074330693649</v>
+        <v>0.1657183655339427</v>
       </c>
     </row>
     <row r="8">
@@ -749,7 +749,7 @@
         <v>-0.6345313432709465</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8321239649056814</v>
+        <v>0.8447036566409688</v>
       </c>
       <c r="J8" t="n">
         <v>0.814551019477649</v>
@@ -787,7 +787,7 @@
         <v>-0.6343676191317295</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8321239649056814</v>
+        <v>0.8447036566409688</v>
       </c>
       <c r="J9" t="n">
         <v>0.8111885302390592</v>
@@ -822,19 +822,19 @@
         <v>0.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6230234299428949</v>
+        <v>0.5174572920123405</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2181240897325915</v>
+        <v>0.2862198218713413</v>
       </c>
       <c r="J10" t="n">
         <v>0.6486161655729349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8712479007605568</v>
+        <v>0.7205936468619331</v>
       </c>
       <c r="L10" t="n">
-        <v>0.226976570057105</v>
+        <v>0.3325427079876595</v>
       </c>
     </row>
     <row r="11">
@@ -860,19 +860,19 @@
         <v>0.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0.622439683079166</v>
+        <v>0.667333332444444</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1663333333333334</v>
+        <v>0.2640339039264897</v>
       </c>
       <c r="J11" t="n">
         <v>0.4999999999999994</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8681087666070352</v>
+        <v>0.5499998996992981</v>
       </c>
       <c r="L11" t="n">
-        <v>0.227560316920834</v>
+        <v>0.1826666675555559</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -711,7 +711,7 @@
         <v>0.6342816344660573</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3848806682920582</v>
+        <v>0.4599435772042542</v>
       </c>
       <c r="J7" t="n">
         <v>0.1905605150983513</v>
@@ -749,7 +749,7 @@
         <v>-0.6345313432709465</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8447036566409688</v>
+        <v>0.8409021408999883</v>
       </c>
       <c r="J8" t="n">
         <v>0.814551019477649</v>
@@ -787,7 +787,7 @@
         <v>-0.6343676191317295</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8447036566409688</v>
+        <v>0.8409021408999883</v>
       </c>
       <c r="J9" t="n">
         <v>0.8111885302390592</v>
@@ -825,7 +825,7 @@
         <v>0.5174572920123405</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2862198218713413</v>
+        <v>0.2778574283681999</v>
       </c>
       <c r="J10" t="n">
         <v>0.6486161655729349</v>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -521,7 +521,7 @@
         <v>0.6310413597568404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4723216039240778</v>
+        <v>0.4698579619822297</v>
       </c>
       <c r="J2" t="n">
         <v>0.8000857010145761</v>
@@ -594,10 +594,10 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3365849853028059</v>
+        <v>1.222175083717947e-17</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4723216039240778</v>
+        <v>0.4698579619822297</v>
       </c>
       <c r="J4" t="n">
         <v>0.6936418300135643</v>
@@ -606,7 +606,7 @@
         <v>0.680884174355996</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2165849853028059</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -670,10 +670,10 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6354218043317128</v>
+        <v>0.6673333333333329</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2874308538537654</v>
+        <v>0.2085278213706131</v>
       </c>
       <c r="J6" t="n">
         <v>0.8336666666666664</v>
@@ -682,7 +682,7 @@
         <v>0.8919666127539357</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1354218043317128</v>
+        <v>0.1673333333333329</v>
       </c>
     </row>
     <row r="7">
@@ -711,7 +711,7 @@
         <v>0.6342816344660573</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4599435772042542</v>
+        <v>0.4519274383469447</v>
       </c>
       <c r="J7" t="n">
         <v>0.1905605150983513</v>
@@ -822,10 +822,10 @@
         <v>0.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5174572920123405</v>
+        <v>0.6673333333333329</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2778574283681999</v>
+        <v>0.1962864880001979</v>
       </c>
       <c r="J10" t="n">
         <v>0.6486161655729349</v>
@@ -834,7 +834,7 @@
         <v>0.7205936468619331</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3325427079876595</v>
+        <v>0.1826666666666671</v>
       </c>
     </row>
     <row r="11">
@@ -860,10 +860,10 @@
         <v>0.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0.667333332444444</v>
+        <v>0.6673333333333329</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2640339039264897</v>
+        <v>0.1795051197566921</v>
       </c>
       <c r="J11" t="n">
         <v>0.4999999999999994</v>
@@ -872,7 +872,7 @@
         <v>0.5499998996992981</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1826666675555559</v>
+        <v>0.1826666666666671</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -521,13 +521,13 @@
         <v>0.6310413597568404</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4698579619822297</v>
+        <v>-0.05045409661440903</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8000857010145761</v>
+        <v>0.6001714020291481</v>
       </c>
       <c r="K2" t="n">
-        <v>0.883592509046112</v>
+        <v>0.7671850180922241</v>
       </c>
       <c r="L2" t="n">
         <v>0.09895864024315959</v>
@@ -556,19 +556,19 @@
         <v>-0.82</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6343053487049435</v>
+        <v>-0.6343053487049432</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8313644582717292</v>
+        <v>0.6176937245732844</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8099207875052991</v>
+        <v>0.6198415750105906</v>
       </c>
       <c r="K3" t="n">
-        <v>0.889795429016197</v>
+        <v>0.7795908580323874</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1856946512950565</v>
+        <v>0.1856946512950568</v>
       </c>
     </row>
     <row r="4">
@@ -594,19 +594,19 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.222175083717947e-17</v>
+        <v>0.02102361176969165</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4698579619822297</v>
+        <v>-0.05045409661440903</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6936418300135643</v>
+        <v>0.3481879484121257</v>
       </c>
       <c r="K4" t="n">
-        <v>0.680884174355996</v>
+        <v>-0.00968251129590203</v>
       </c>
       <c r="L4" t="n">
-        <v>0.12</v>
+        <v>0.09897638823030834</v>
       </c>
     </row>
     <row r="5">
@@ -632,19 +632,19 @@
         <v>-0.85</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.635421804331712</v>
+        <v>-0.6354218043317121</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8447036566409688</v>
+        <v>0.6561296207845055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8336666666666664</v>
+        <v>0.6673333333333329</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8919666127539357</v>
+        <v>0.7839332255078716</v>
       </c>
       <c r="L5" t="n">
-        <v>0.214578195668288</v>
+        <v>0.2145781956682878</v>
       </c>
     </row>
     <row r="6">
@@ -673,13 +673,13 @@
         <v>0.6673333333333329</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2085278213706131</v>
+        <v>-0.5210303240509424</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8336666666666664</v>
+        <v>0.6673333333333329</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8919666127539357</v>
+        <v>0.7839332255078716</v>
       </c>
       <c r="L6" t="n">
         <v>0.1673333333333329</v>
@@ -708,19 +708,19 @@
         <v>0.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6342816344660573</v>
+        <v>0.6342816344660627</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4519274383469447</v>
+        <v>-0.07895177966509348</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1905605150983513</v>
+        <v>-0.618878969803295</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8897495989297139</v>
+        <v>0.7794991978594208</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1657183655339427</v>
+        <v>0.1657183655339374</v>
       </c>
     </row>
     <row r="8">
@@ -746,19 +746,19 @@
         <v>-0.31</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6345313432709465</v>
+        <v>-0.6345313432709461</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8409021408999883</v>
+        <v>0.6468027251078172</v>
       </c>
       <c r="J8" t="n">
-        <v>0.814551019477649</v>
+        <v>0.629102038955292</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8902327801068848</v>
+        <v>0.7804655602137632</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3245313432709465</v>
+        <v>0.3245313432709461</v>
       </c>
     </row>
     <row r="9">
@@ -784,19 +784,19 @@
         <v>-0.65</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6343676191317295</v>
+        <v>-0.6343676191317272</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8409021408999883</v>
+        <v>0.6468027251078172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8111885302390592</v>
+        <v>0.6223770604781206</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8899158294231181</v>
+        <v>0.7798316588462341</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01563238086827057</v>
+        <v>0.01563238086827279</v>
       </c>
     </row>
     <row r="10">
@@ -825,13 +825,13 @@
         <v>0.6673333333333329</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1962864880001979</v>
+        <v>-0.5369876901374344</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6486161655729349</v>
+        <v>0.2545024957943924</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7205936468619331</v>
+        <v>0.3116380306814149</v>
       </c>
       <c r="L10" t="n">
         <v>0.1826666666666671</v>
@@ -863,13 +863,13 @@
         <v>0.6673333333333329</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1795051197566921</v>
+        <v>-0.5600272849343482</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4999999999999994</v>
+        <v>-3.295317669858949e-17</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5499998996992981</v>
+        <v>0.05555544411033168</v>
       </c>
       <c r="L11" t="n">
         <v>0.1826666666666671</v>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,15 +481,10 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Out</t>
+          <t>FinalOut</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>FinalOut</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>erro_CLP</t>
         </is>
@@ -518,19 +513,16 @@
         <v>0.73</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6310413597568404</v>
+        <v>0.6353673182146861</v>
       </c>
       <c r="I2" t="n">
         <v>-0.05045409661440903</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6001714020291481</v>
+        <v>0.925</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7671850180922241</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.09895864024315959</v>
+        <v>0.09463268178531392</v>
       </c>
     </row>
     <row r="3">
@@ -556,19 +548,16 @@
         <v>-0.82</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.6343053487049432</v>
+        <v>-0.4206396658872918</v>
       </c>
       <c r="I3" t="n">
         <v>0.6176937245732844</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6198415750105906</v>
+        <v>0.6960000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7795908580323874</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1856946512950568</v>
+        <v>0.3993603341127082</v>
       </c>
     </row>
     <row r="4">
@@ -594,19 +583,16 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02102361176969165</v>
+        <v>0.346812410619258</v>
       </c>
       <c r="I4" t="n">
         <v>-0.05045409661440903</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3481879484121257</v>
+        <v>0.5912500000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.00968251129590203</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.09897638823030834</v>
+        <v>0.226812410619258</v>
       </c>
     </row>
     <row r="5">
@@ -632,19 +618,16 @@
         <v>-0.85</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6354218043317121</v>
+        <v>-0.4077101776668297</v>
       </c>
       <c r="I5" t="n">
         <v>0.6561296207845055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6673333333333329</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7839332255078716</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.2145781956682878</v>
+        <v>0.4422898223331703</v>
       </c>
     </row>
     <row r="6">
@@ -670,19 +653,16 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6673333333333329</v>
+        <v>0.510375775443301</v>
       </c>
       <c r="I6" t="n">
         <v>-0.5210303240509424</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6673333333333329</v>
+        <v>0.45</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7839332255078716</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.1673333333333329</v>
+        <v>0.01037577544330104</v>
       </c>
     </row>
     <row r="7">
@@ -708,19 +688,16 @@
         <v>0.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6342816344660627</v>
+        <v>0.02968189633182631</v>
       </c>
       <c r="I7" t="n">
         <v>-0.07895177966509348</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.618878969803295</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7794991978594208</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1657183655339374</v>
+        <v>0.7703181036681738</v>
       </c>
     </row>
     <row r="8">
@@ -746,19 +723,16 @@
         <v>-0.31</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.6345313432709461</v>
+        <v>-0.4963823163416446</v>
       </c>
       <c r="I8" t="n">
         <v>0.6468027251078172</v>
       </c>
       <c r="J8" t="n">
-        <v>0.629102038955292</v>
+        <v>0.356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7804655602137632</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.3245313432709461</v>
+        <v>0.1863823163416446</v>
       </c>
     </row>
     <row r="9">
@@ -784,19 +758,16 @@
         <v>-0.65</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6343676191317272</v>
+        <v>-0.4525823163416446</v>
       </c>
       <c r="I9" t="n">
         <v>0.6468027251078172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6223770604781206</v>
+        <v>0.648</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7798316588462341</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.01563238086827279</v>
+        <v>0.1974176836583554</v>
       </c>
     </row>
     <row r="10">
@@ -822,19 +793,16 @@
         <v>0.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6673333333333329</v>
+        <v>0.5485395366168192</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5369876901374344</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2545024957943924</v>
+        <v>0.614</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3116380306814149</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.1826666666666671</v>
+        <v>0.3014604633831808</v>
       </c>
     </row>
     <row r="11">
@@ -860,19 +828,16 @@
         <v>0.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6673333333333329</v>
+        <v>0.4760231921941959</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5600272849343482</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.295317669858949e-17</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05555544411033168</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.1826666666666671</v>
+        <v>0.3739768078058041</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -513,16 +513,16 @@
         <v>0.73</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6353673182146861</v>
+        <v>0.6562615384615386</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05045409661440903</v>
+        <v>0.316923076923077</v>
       </c>
       <c r="J2" t="n">
-        <v>0.925</v>
+        <v>0.8280000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09463268178531392</v>
+        <v>0.07373846153846142</v>
       </c>
     </row>
     <row r="3">
@@ -548,16 +548,16 @@
         <v>-0.82</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4206396658872918</v>
+        <v>-0.8154180000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6176937245732844</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6960000000000001</v>
+        <v>0.03980000000000006</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3993603341127082</v>
+        <v>0.004581999999999864</v>
       </c>
     </row>
     <row r="4">
@@ -583,16 +583,16 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="n">
-        <v>0.346812410619258</v>
+        <v>0.02046153846153853</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05045409661440903</v>
+        <v>0.316923076923077</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5912500000000001</v>
+        <v>0.08000000000000008</v>
       </c>
       <c r="K4" t="n">
-        <v>0.226812410619258</v>
+        <v>0.09953846153846146</v>
       </c>
     </row>
     <row r="5">
@@ -618,16 +618,16 @@
         <v>-0.85</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4077101776668297</v>
+        <v>-0.8200000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6561296207845055</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4422898223331703</v>
+        <v>0.02999999999999992</v>
       </c>
     </row>
     <row r="6">
@@ -653,16 +653,16 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.510375775443301</v>
+        <v>0.5532165841584158</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5210303240509424</v>
+        <v>-0.5625</v>
       </c>
       <c r="J6" t="n">
-        <v>0.45</v>
+        <v>0.5299999999999998</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01037577544330104</v>
+        <v>0.05321658415841579</v>
       </c>
     </row>
     <row r="7">
@@ -688,16 +688,16 @@
         <v>0.8</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02968189633182631</v>
+        <v>0.8548214285714285</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.07895177966509348</v>
+        <v>-0.03214285714285708</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7703181036681738</v>
+        <v>0.05482142857142847</v>
       </c>
     </row>
     <row r="8">
@@ -723,16 +723,16 @@
         <v>-0.31</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.4963823163416446</v>
+        <v>-0.381205128205128</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6468027251078172</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>0.356</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1863823163416446</v>
+        <v>0.07120512820512803</v>
       </c>
     </row>
     <row r="9">
@@ -758,16 +758,16 @@
         <v>-0.65</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4525823163416446</v>
+        <v>-0.4980191939671157</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6468027251078172</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.648</v>
+        <v>0.01399999999999979</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1974176836583554</v>
+        <v>0.1519808060328843</v>
       </c>
     </row>
     <row r="10">
@@ -793,16 +793,16 @@
         <v>0.85</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5485395366168192</v>
+        <v>0.745345</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5369876901374344</v>
+        <v>-0.7975</v>
       </c>
       <c r="J10" t="n">
-        <v>0.614</v>
+        <v>0.2179999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3014604633831808</v>
+        <v>0.1046549999999999</v>
       </c>
     </row>
     <row r="11">
@@ -828,16 +828,16 @@
         <v>0.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4760231921941959</v>
+        <v>0.9317500000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5600272849343482</v>
+        <v>-0.925</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3739768078058041</v>
+        <v>0.0817500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>V_MemoryUsage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>V_ProcessorLoad</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>V_InpNetThroughput</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>V_OutNetThroughput</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>V_OutBandwidth</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>V_Latency</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>CLPVariation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>CLPVariation_pred</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>FinalOut</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>erro_CLP</t>
         </is>
@@ -510,18 +530,30 @@
         <v>0.8</v>
       </c>
       <c r="G2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.73</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>0.6562615384615386</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.316923076923077</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8280000000000001</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.07373846153846142</v>
       </c>
     </row>
@@ -545,18 +577,30 @@
         <v>0.53</v>
       </c>
       <c r="G3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M3" t="n">
         <v>-0.82</v>
       </c>
-      <c r="H3" t="n">
+      <c r="N3" t="n">
         <v>-0.8154180000000001</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03980000000000006</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.004581999999999864</v>
       </c>
     </row>
@@ -580,18 +624,30 @@
         <v>0.4</v>
       </c>
       <c r="G4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.12</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>0.02046153846153853</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.316923076923077</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08000000000000008</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.09953846153846146</v>
       </c>
     </row>
@@ -615,18 +671,30 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="n">
         <v>-0.85</v>
       </c>
-      <c r="H5" t="n">
+      <c r="N5" t="n">
         <v>-0.8200000000000001</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
         <v>0.02999999999999992</v>
       </c>
     </row>
@@ -653,15 +721,27 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.5532165841584158</v>
       </c>
-      <c r="I6" t="n">
-        <v>-0.5625</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5299999999999998</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.05321658415841579</v>
       </c>
     </row>
@@ -685,18 +765,30 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="N7" t="n">
         <v>0.8548214285714285</v>
       </c>
-      <c r="I7" t="n">
-        <v>-0.03214285714285708</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.05482142857142847</v>
       </c>
     </row>
@@ -720,18 +812,30 @@
         <v>0.5</v>
       </c>
       <c r="G8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M8" t="n">
         <v>-0.31</v>
       </c>
-      <c r="H8" t="n">
+      <c r="N8" t="n">
         <v>-0.381205128205128</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.07120512820512803</v>
       </c>
     </row>
@@ -755,18 +859,30 @@
         <v>0.5</v>
       </c>
       <c r="G9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M9" t="n">
         <v>-0.65</v>
       </c>
-      <c r="H9" t="n">
+      <c r="N9" t="n">
         <v>-0.4980191939671157</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01399999999999979</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.1519808060328843</v>
       </c>
     </row>
@@ -790,18 +906,30 @@
         <v>0.5</v>
       </c>
       <c r="G10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.85</v>
       </c>
-      <c r="H10" t="n">
+      <c r="N10" t="n">
         <v>0.745345</v>
       </c>
-      <c r="I10" t="n">
-        <v>-0.7975</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2179999999999999</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="O10" t="n">
         <v>0.1046549999999999</v>
       </c>
     </row>
@@ -825,18 +953,30 @@
         <v>0.6</v>
       </c>
       <c r="G11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.85</v>
       </c>
-      <c r="H11" t="n">
+      <c r="N11" t="n">
         <v>0.9317500000000001</v>
       </c>
-      <c r="I11" t="n">
-        <v>-0.925</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="O11" t="n">
         <v>0.0817500000000001</v>
       </c>
     </row>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -551,10 +551,10 @@
         <v>0.73</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6562615384615386</v>
+        <v>0.6562615384615387</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07373846153846142</v>
+        <v>0.07373846153846131</v>
       </c>
     </row>
     <row r="3">
@@ -598,10 +598,10 @@
         <v>-0.82</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.8154180000000001</v>
+        <v>-0.8105953846153846</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004581999999999864</v>
+        <v>0.009404615384615345</v>
       </c>
     </row>
     <row r="4">
@@ -645,10 +645,10 @@
         <v>0.12</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02046153846153853</v>
+        <v>0.02046153846153852</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09953846153846146</v>
+        <v>0.09953846153846148</v>
       </c>
     </row>
     <row r="5">
@@ -739,10 +739,10 @@
         <v>0.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5532165841584158</v>
+        <v>0.5500416666666665</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05321658415841579</v>
+        <v>0.05004166666666654</v>
       </c>
     </row>
     <row r="7">
@@ -880,10 +880,10 @@
         <v>-0.65</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.4980191939671157</v>
+        <v>-0.5399939130434782</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1519808060328843</v>
+        <v>0.1100060869565218</v>
       </c>
     </row>
     <row r="10">
@@ -974,10 +974,10 @@
         <v>0.85</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9317500000000001</v>
+        <v>0.9070000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0817500000000001</v>
+        <v>0.05700000000000016</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruipe\Desktop\5.1\CInte\Proj Cint\Project_Cint\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95ADB8-7632-4D7F-BF73-357EE8086058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>MemoryUsage</t>
+  </si>
+  <si>
+    <t>ProcessorLoad</t>
+  </si>
+  <si>
+    <t>InpNetThroughput</t>
+  </si>
+  <si>
+    <t>OutNetThroughput</t>
+  </si>
+  <si>
+    <t>OutBandwidth</t>
+  </si>
+  <si>
+    <t>Latency</t>
+  </si>
+  <si>
+    <t>V_MemoryUsage</t>
+  </si>
+  <si>
+    <t>V_ProcessorLoad</t>
+  </si>
+  <si>
+    <t>V_InpNetThroughput</t>
+  </si>
+  <si>
+    <t>V_OutNetThroughput</t>
+  </si>
+  <si>
+    <t>V_OutBandwidth</t>
+  </si>
+  <si>
+    <t>V_Latency</t>
+  </si>
+  <si>
+    <t>CLPVariation</t>
+  </si>
+  <si>
+    <t>CLPVariation_pred</t>
+  </si>
+  <si>
+    <t>erro_CLP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,564 +426,542 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="2" sqref="M1:O1048576 D1:F1048576 A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MemoryUsage</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ProcessorLoad</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>InpNetThroughput</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>OutNetThroughput</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OutBandwidth</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Latency</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>V_MemoryUsage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>V_ProcessorLoad</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>V_InpNetThroughput</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>V_OutNetThroughput</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>V_OutBandwidth</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>V_Latency</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CLPVariation</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CLPVariation_pred</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>erro_CLP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>0.68</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0.6</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.65</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.72</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.45</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.52</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
         <v>0.48</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.45</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>0.48</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>0.73</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.6562615384615387</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.07373846153846131</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="N2">
+        <v>0.65626153846153867</v>
+      </c>
+      <c r="O2">
+        <v>7.3738461538461308E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>0.65</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.95</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.87</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.75</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.88</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.53</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.6</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.52</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
         <v>0.52</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.48</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>0.52</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>-0.82</v>
       </c>
-      <c r="N3" t="n">
-        <v>-0.8105953846153846</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.009404615384615345</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="N3">
+        <v>-0.81059538461538461</v>
+      </c>
+      <c r="O3">
+        <v>9.4046153846153446E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>0.68</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.65</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.74</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.45</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.52</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="J4">
         <v>0.48</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.46</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.48</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>0.12</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.02046153846153852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.09953846153846148</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="N4">
+        <v>2.0461538461538521E-2</v>
+      </c>
+      <c r="O4">
+        <v>9.9538461538461478E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
         <v>-0.85</v>
       </c>
-      <c r="N5" t="n">
-        <v>-0.8200000000000001</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.02999999999999992</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.5500416666666665</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.05004166666666654</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="N5">
+        <v>-0.82000000000000006</v>
+      </c>
+      <c r="O5">
+        <v>2.9999999999999919E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>0.55004166666666654</v>
+      </c>
+      <c r="O6">
+        <v>5.004166666666654E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>0.65</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
         <v>0.7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.23</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.8</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.45</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.51</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.45</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.3</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M7">
         <v>0.8</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.8548214285714285</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.05482142857142847</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="N7">
+        <v>0.85482142857142851</v>
+      </c>
+      <c r="O7">
+        <v>5.4821428571428472E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>0.83</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>0.78</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.87</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.78</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
         <v>0.59</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.45</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J8">
         <v>0.52</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.49</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>0.52</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>-0.31</v>
       </c>
-      <c r="N8" t="n">
-        <v>-0.381205128205128</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.07120512820512803</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="N8">
+        <v>-0.38120512820512797</v>
+      </c>
+      <c r="O8">
+        <v>7.1205128205128032E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>0.83</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.78</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.78</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.79</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.78</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
         <v>0.45</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.53</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J9">
         <v>0.48</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.46</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>0.48</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>-0.65</v>
       </c>
-      <c r="N9" t="n">
-        <v>-0.5399939130434782</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="N9">
+        <v>-0.53999391304347821</v>
+      </c>
+      <c r="O9">
         <v>0.1100060869565218</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>0.39</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.42</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.73</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.62</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.78</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H10">
         <v>0.67</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="I10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K10">
         <v>0.52</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>0.6</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>0.85</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.745345</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="N10">
+        <v>0.74534500000000004</v>
+      </c>
+      <c r="O10">
         <v>0.1046549999999999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>0.2</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.1</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.2</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.15</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
         <v>0.6</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H11">
         <v>0.67</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="I11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K11">
         <v>0.52</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>0.6</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>0.85</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.9070000000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.05700000000000016</v>
+      <c r="N11">
+        <v>0.90700000000000014</v>
+      </c>
+      <c r="O11">
+        <v>5.7000000000000162E-2</v>
       </c>
     </row>
   </sheetData>
